--- a/data/valuation_data.xlsx
+++ b/data/valuation_data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,30 +529,25 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>enterprise_value</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>enterprise_value</t>
+          <t>ev_to_revenue</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ev_to_revenue</t>
+          <t>ev_to_ebitda</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ev_to_ebitda</t>
+          <t>profit_margin</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>profit_margin</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>operating_margin</t>
         </is>
@@ -574,35 +569,68 @@
           <t>港股</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LENOVO GROUP</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>13.867471</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.559633</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25.86517</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.9704347</v>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>142777630720</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9330000000000001</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.39</v>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:20</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Failed to perform, curl: (35) TLS connect error: error:00000000:invalid library (0):OPENSSL_internal:invalid library (0). See https://curl.se/libcurl/c/libcurl-errors.html first for more details.</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+          <t>2025-10-07 23:19:47</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>144862511104</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>43.156</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.022720002</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.041690003</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -626,7 +654,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -634,20 +662,20 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>142.2034</v>
+        <v>151.35594</v>
       </c>
       <c r="H3" t="n">
-        <v>20.413626</v>
+        <v>21.727493</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1416721</v>
+        <v>2.279515</v>
       </c>
       <c r="J3" t="n">
-        <v>2.632081</v>
+        <v>2.801488</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>34939269120</v>
+        <v>37188042752</v>
       </c>
       <c r="M3" t="n">
         <v>1.037</v>
@@ -662,27 +690,26 @@
         <v>0.018</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:24</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>2025-10-07 23:19:47</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>36955455488</v>
+      </c>
       <c r="T3" t="n">
-        <v>34706579456</v>
+        <v>2.784</v>
       </c>
       <c r="U3" t="n">
-        <v>2.615</v>
+        <v>38.552</v>
       </c>
       <c r="V3" t="n">
-        <v>36.206</v>
+        <v>0.01847</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01847</v>
-      </c>
-      <c r="X3" t="n">
         <v>0.049790002</v>
       </c>
     </row>
@@ -708,7 +735,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.43</v>
+        <v>11.99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -716,20 +743,20 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>25.367348</v>
+        <v>24.469387</v>
       </c>
       <c r="H4" t="n">
-        <v>14.79762</v>
+        <v>14.273809</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5955315</v>
+        <v>2.5036542</v>
       </c>
       <c r="J4" t="n">
-        <v>1.9897373</v>
+        <v>1.9193041</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>38781599744</v>
+        <v>37408800768</v>
       </c>
       <c r="M4" t="n">
         <v>0.5649999999999999</v>
@@ -744,27 +771,26 @@
         <v>0.11</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:26</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>2025-10-07 23:19:48</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>38689329152</v>
+      </c>
       <c r="T4" t="n">
-        <v>40062132224</v>
+        <v>1.985</v>
       </c>
       <c r="U4" t="n">
-        <v>2.055</v>
+        <v>13.095</v>
       </c>
       <c r="V4" t="n">
-        <v>13.559</v>
+        <v>0.07858</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07858</v>
-      </c>
-      <c r="X4" t="n">
         <v>0.12005</v>
       </c>
     </row>
@@ -790,7 +816,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33.34</v>
+        <v>34.18</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -798,20 +824,20 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>20.580248</v>
+        <v>21.098766</v>
       </c>
       <c r="H5" t="n">
-        <v>21.101265</v>
+        <v>21.632912</v>
       </c>
       <c r="I5" t="n">
-        <v>6.235272</v>
+        <v>6.3923693</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6867766</v>
+        <v>2.70186</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>862278713344</v>
+        <v>867119464448</v>
       </c>
       <c r="M5" t="n">
         <v>1.457</v>
@@ -826,27 +852,26 @@
         <v>0.174</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:27</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>2025-10-07 23:19:49</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1077315436544</v>
+      </c>
       <c r="T5" t="n">
-        <v>1054995185664</v>
+        <v>3.357</v>
       </c>
       <c r="U5" t="n">
-        <v>3.287</v>
+        <v>16.673</v>
       </c>
       <c r="V5" t="n">
-        <v>16.328</v>
+        <v>0.12544</v>
       </c>
       <c r="W5" t="n">
-        <v>0.12544</v>
-      </c>
-      <c r="X5" t="n">
         <v>0.19373</v>
       </c>
     </row>
@@ -912,23 +937,22 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:28</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>2025-10-07 23:19:50</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>166618284032</v>
+      </c>
       <c r="T6" t="n">
-        <v>166618284032</v>
+        <v>36.163</v>
       </c>
       <c r="U6" t="n">
-        <v>36.163</v>
+        <v>106.337</v>
       </c>
       <c r="V6" t="n">
-        <v>106.337</v>
+        <v>0.42924</v>
       </c>
       <c r="W6" t="n">
-        <v>0.42924</v>
-      </c>
-      <c r="X6" t="n">
         <v>0.3721</v>
       </c>
     </row>
@@ -994,23 +1018,22 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:28</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>2025-10-07 23:19:51</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>120238841856</v>
+      </c>
       <c r="T7" t="n">
-        <v>120238841856</v>
+        <v>1.668</v>
       </c>
       <c r="U7" t="n">
-        <v>1.668</v>
+        <v>12.53</v>
       </c>
       <c r="V7" t="n">
-        <v>12.53</v>
+        <v>0.06018</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06018</v>
-      </c>
-      <c r="X7" t="n">
         <v>0.120740004</v>
       </c>
     </row>
@@ -1076,23 +1099,22 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:29</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>2025-10-07 23:19:51</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>54314614784</v>
+      </c>
       <c r="T8" t="n">
-        <v>54314614784</v>
+        <v>1.081</v>
       </c>
       <c r="U8" t="n">
-        <v>1.081</v>
+        <v>13.235</v>
       </c>
       <c r="V8" t="n">
-        <v>13.235</v>
+        <v>0.05863</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05863</v>
-      </c>
-      <c r="X8" t="n">
         <v>0.06059</v>
       </c>
     </row>
@@ -1158,23 +1180,22 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:30</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>2025-10-07 23:19:52</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>82726690816</v>
+      </c>
       <c r="T9" t="n">
-        <v>82726690816</v>
+        <v>4.802</v>
       </c>
       <c r="U9" t="n">
-        <v>4.802</v>
+        <v>13.36</v>
       </c>
       <c r="V9" t="n">
-        <v>13.36</v>
+        <v>0.18406</v>
       </c>
       <c r="W9" t="n">
-        <v>0.18406</v>
-      </c>
-      <c r="X9" t="n">
         <v>0.25872</v>
       </c>
     </row>
@@ -1217,11 +1238,11 @@
         <v>1.534371</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2271677</v>
+        <v>0.2281417</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>115306274816</v>
+        <v>115800662016</v>
       </c>
       <c r="M10" t="n">
         <v>1.393</v>
@@ -1240,23 +1261,22 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:31</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>2025-10-07 23:19:53</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>168145682432</v>
+      </c>
       <c r="T10" t="n">
-        <v>168145682432</v>
+        <v>0.331</v>
       </c>
       <c r="U10" t="n">
-        <v>0.331</v>
+        <v>12.695</v>
       </c>
       <c r="V10" t="n">
-        <v>12.695</v>
+        <v>0.01482</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01482</v>
-      </c>
-      <c r="X10" t="n">
         <v>0.02303</v>
       </c>
     </row>
@@ -1322,23 +1342,22 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:31</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>2025-10-07 23:19:54</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>39566839808</v>
+      </c>
       <c r="T11" t="n">
-        <v>39566839808</v>
+        <v>5.009</v>
       </c>
       <c r="U11" t="n">
-        <v>5.009</v>
+        <v>25.604</v>
       </c>
       <c r="V11" t="n">
-        <v>25.604</v>
+        <v>0.11076</v>
       </c>
       <c r="W11" t="n">
-        <v>0.11076</v>
-      </c>
-      <c r="X11" t="n">
         <v>0.20023</v>
       </c>
     </row>
@@ -1404,23 +1423,22 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:32</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>2025-10-07 23:19:55</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>135027564544</v>
+      </c>
       <c r="T12" t="n">
-        <v>135027564544</v>
+        <v>5.761</v>
       </c>
       <c r="U12" t="n">
-        <v>5.761</v>
+        <v>38.026</v>
       </c>
       <c r="V12" t="n">
-        <v>38.026</v>
+        <v>0.09526</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09526</v>
-      </c>
-      <c r="X12" t="n">
         <v>0.14628</v>
       </c>
     </row>
@@ -1486,23 +1504,22 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:33</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>2025-10-07 23:19:55</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>50999451648</v>
+      </c>
       <c r="T13" t="n">
-        <v>50999451648</v>
+        <v>4.901</v>
       </c>
       <c r="U13" t="n">
-        <v>4.901</v>
+        <v>43.657</v>
       </c>
       <c r="V13" t="n">
-        <v>43.657</v>
+        <v>0.07935</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07935</v>
-      </c>
-      <c r="X13" t="n">
         <v>0.04251</v>
       </c>
     </row>
@@ -1568,23 +1585,22 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:34</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>2025-10-07 23:19:56</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>129213718528</v>
+      </c>
       <c r="T14" t="n">
-        <v>129213718528</v>
+        <v>1.314</v>
       </c>
       <c r="U14" t="n">
-        <v>1.314</v>
+        <v>9.792</v>
       </c>
       <c r="V14" t="n">
-        <v>9.792</v>
+        <v>0.0436</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0436</v>
-      </c>
-      <c r="X14" t="n">
         <v>0.07595</v>
       </c>
     </row>
@@ -1650,23 +1666,22 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2025-10-06 00:31:35</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>2025-10-07 23:19:57</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>18815881216</v>
+      </c>
       <c r="T15" t="n">
-        <v>18815881216</v>
+        <v>2.774</v>
       </c>
       <c r="U15" t="n">
-        <v>2.774</v>
+        <v>9.867000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>9.867000000000001</v>
+        <v>0.16791001</v>
       </c>
       <c r="W15" t="n">
-        <v>0.16791001</v>
-      </c>
-      <c r="X15" t="n">
         <v>0.22197</v>
       </c>
     </row>
@@ -1752,12 +1767,20 @@
           <t>港股</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>13.867471</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.559633</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.86517</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.9330000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1776,13 +1799,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142.2034</v>
+        <v>151.35594</v>
       </c>
       <c r="E3" t="n">
-        <v>20.413626</v>
+        <v>21.727493</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1416721</v>
+        <v>2.279515</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
@@ -1809,13 +1832,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.367348</v>
+        <v>24.469387</v>
       </c>
       <c r="E4" t="n">
-        <v>14.79762</v>
+        <v>14.273809</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5955315</v>
+        <v>2.5036542</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -1842,13 +1865,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20.580248</v>
+        <v>21.098766</v>
       </c>
       <c r="E5" t="n">
-        <v>21.101265</v>
+        <v>21.632912</v>
       </c>
       <c r="F5" t="n">
-        <v>6.235272</v>
+        <v>6.3923693</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -2242,304 +2265,310 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>川恒股份</t>
+          <t>联想集团</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002895.SZ</t>
+          <t>0992.HK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.413794</v>
+        <v>13.867471</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5579405</v>
+        <v>10.559633</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>江西铜业</t>
+          <t>川恒股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>600362.SS</t>
+          <t>002895.SZ</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.35484</v>
+        <v>14.413794</v>
       </c>
       <c r="D3" t="n">
-        <v>17.228157</v>
+        <v>12.5579405</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.171</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2899.HK</t>
+          <t>600362.SS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.580248</v>
+        <v>16.35484</v>
       </c>
       <c r="D4" t="n">
-        <v>21.101265</v>
+        <v>17.228157</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.445</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>特变电工</t>
+          <t>紫金矿业</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>600089.SS</t>
+          <t>2899.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.445782</v>
+        <v>21.098766</v>
       </c>
       <c r="D5" t="n">
-        <v>12.714286</v>
+        <v>21.632912</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.525</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中国巨石</t>
+          <t>特变电工</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>600176.SS</t>
+          <t>600089.SS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.949368</v>
+        <v>21.445782</v>
       </c>
       <c r="D6" t="n">
-        <v>23.753424</v>
+        <v>12.714286</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>中天科技</t>
+          <t>中国巨石</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600522.SS</t>
+          <t>600176.SS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21.949368</v>
       </c>
       <c r="D7" t="n">
-        <v>15.258064</v>
+        <v>23.753424</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.139</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中金黄金</t>
+          <t>中天科技</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>600489.SS</t>
+          <t>600522.SS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.366667</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>23.084211</v>
+        <v>15.258064</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.766</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>建滔积层板</t>
+          <t>中金黄金</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1888.HK</t>
+          <t>600489.SS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.367348</v>
+        <v>24.366667</v>
       </c>
       <c r="D9" t="n">
-        <v>14.79762</v>
+        <v>23.084211</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.283</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>雅克科技</t>
+          <t>建滔积层板</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002409.SZ</t>
+          <t>1888.HK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40.08152</v>
+        <v>24.469387</v>
       </c>
       <c r="D10" t="n">
-        <v>25.607637</v>
+        <v>14.273809</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.041</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>生益科技</t>
+          <t>雅克科技</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>600183.SS</t>
+          <t>002409.SZ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58.08602</v>
+        <v>40.08152</v>
       </c>
       <c r="D11" t="n">
-        <v>54.565655</v>
+        <v>25.607637</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.589</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>光迅科技</t>
+          <t>生益科技</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002281.SZ</t>
+          <t>600183.SS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63.428574</v>
+        <v>58.08602</v>
       </c>
       <c r="D12" t="n">
-        <v>54.14634</v>
+        <v>54.565655</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.773</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>澜起科技</t>
+          <t>光迅科技</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>688008.SS</t>
+          <t>002281.SZ</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>88.45714599999999</v>
+        <v>63.428574</v>
       </c>
       <c r="D13" t="n">
-        <v>83.22581</v>
+        <v>54.14634</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.765</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASMPT</t>
+          <t>澜起科技</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0522.HK</t>
+          <t>688008.SS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>142.2034</v>
+        <v>88.45714599999999</v>
       </c>
       <c r="D14" t="n">
-        <v>20.413626</v>
+        <v>83.22581</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-0.061</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>联想集团</t>
+          <t>ASMPT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0992.HK</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t>0522.HK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>151.35594</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.727493</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-0.061</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2626,7 +2655,7 @@
         <v>0.08982000499999999</v>
       </c>
       <c r="E3" t="n">
-        <v>115306274816</v>
+        <v>115800662016</v>
       </c>
     </row>
     <row r="4">
@@ -2653,43 +2682,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASMPT</t>
+          <t>中国巨石</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0522.HK</t>
+          <t>600176.SS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1416721</v>
+        <v>2.25605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01533</v>
+        <v>0.10621</v>
       </c>
       <c r="E5" t="n">
-        <v>34939269120</v>
+        <v>69414395904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中国巨石</t>
+          <t>ASMPT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>600176.SS</t>
+          <t>0522.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.25605</v>
+        <v>2.279515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10621</v>
+        <v>0.01533</v>
       </c>
       <c r="E6" t="n">
-        <v>69414395904</v>
+        <v>37188042752</v>
       </c>
     </row>
     <row r="7">
@@ -2725,13 +2754,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.5955315</v>
+        <v>2.5036542</v>
       </c>
       <c r="D8" t="n">
         <v>0.10152</v>
       </c>
       <c r="E8" t="n">
-        <v>38781599744</v>
+        <v>37408800768</v>
       </c>
     </row>
     <row r="9">
@@ -2809,13 +2838,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.235272</v>
+        <v>6.3923693</v>
       </c>
       <c r="D12" t="n">
         <v>0.28178</v>
       </c>
       <c r="E12" t="n">
-        <v>862278713344</v>
+        <v>867119464448</v>
       </c>
     </row>
     <row r="13">
@@ -2871,9 +2900,13 @@
           <t>0992.HK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>25.86517</v>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>142777630720</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
